--- a/doc/sample-1/code-decompile.xlsx
+++ b/doc/sample-1/code-decompile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/g.kamnev/code/my-b/demo-s-lambda/doc/sample-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD6986CA-7457-8248-9355-6137A751D010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22AB846-2D6C-FD4B-9D5C-EC2503CF8127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3160" yWindow="2160" windowWidth="28240" windowHeight="17440" xr2:uid="{6B27C583-FA24-1540-9A3F-2687B5FBEFFA}"/>
   </bookViews>
@@ -973,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483085F3-DA20-B64D-BD62-BCF0B96212AD}">
   <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1124,9 +1124,6 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="B30" s="2" t="s">
         <v>18</v>
       </c>
@@ -1137,40 +1134,43 @@
       </c>
     </row>
     <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B32" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="B33" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="B34" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="2" t="s">
-        <v>10</v>
+      <c r="A35" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B36" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:2">
+      <c r="A37" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B37" s="2" t="s">
         <v>25</v>
       </c>
